--- a/groundeffect/postProcessing/results.xlsx
+++ b/groundeffect/postProcessing/results.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeemarquez/openfoam/assignment/groundeffect/postProcessing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71310D6-74AF-CF47-9726-6119C17C85DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C2128-583F-AC4C-9F63-F8DCDB77C05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{644D7B96-0E5F-D542-AF68-96F0B50A1CF1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{644D7B96-0E5F-D542-AF68-96F0B50A1CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="groundeffect_lower" sheetId="6" r:id="rId1"/>
     <sheet name="groundeffect_upper" sheetId="7" r:id="rId2"/>
-    <sheet name="results" sheetId="1" r:id="rId3"/>
+    <sheet name="airfoil_1500" sheetId="8" r:id="rId3"/>
+    <sheet name="results" sheetId="1" r:id="rId4"/>
+    <sheet name="forces" sheetId="9" r:id="rId5"/>
+    <sheet name="residuals" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">results!$A$4:$B$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">results!$A$4:$B$61</definedName>
     <definedName name="lower" localSheetId="0">groundeffect_lower!$A$1:$Y$237</definedName>
     <definedName name="upper" localSheetId="1">groundeffect_upper!$A$1:$Y$235</definedName>
   </definedNames>
@@ -10065,7 +10068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434ED28C-7C83-E143-9C15-BA79EDC85AC6}">
   <dimension ref="A1:Y237"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Y237"/>
     </sheetView>
   </sheetViews>
@@ -28351,7 +28354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C7ADB6-622C-0D4A-8978-1181EB06E39C}">
   <dimension ref="A1:Y235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
@@ -46481,11 +46484,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46033ED-04EE-7247-8B32-D72B4E5A4954}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9662FD3F-E4E8-7A40-922F-60A17769971F}">
   <dimension ref="A2:O240"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="62" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView zoomScale="62" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52303,4 +52320,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACD6C53-6467-C04D-9910-1F1405E565A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65816EE-35BA-EB4C-9D4E-8503D0D7364F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>